--- a/DBScript/Resource Keys.xlsx
+++ b/DBScript/Resource Keys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="189">
   <si>
     <t>resource_key_id</t>
   </si>
@@ -520,6 +520,69 @@
   </si>
   <si>
     <t>NEW_PASSWORD</t>
+  </si>
+  <si>
+    <t>TICKET_CREATED_ON</t>
+  </si>
+  <si>
+    <t>IS_RESPONDED</t>
+  </si>
+  <si>
+    <t>TICKET_RESPONDED_ON</t>
+  </si>
+  <si>
+    <t>HEADER_MY_INVITATION_CODES</t>
+  </si>
+  <si>
+    <t>HEADER_MY_INVITATION_CODE</t>
+  </si>
+  <si>
+    <t>INVITATION_CODE_FOR</t>
+  </si>
+  <si>
+    <t>INVITATION_CODE</t>
+  </si>
+  <si>
+    <t>INVITATION_CODE_STATUS</t>
+  </si>
+  <si>
+    <t>Code4Buyer</t>
+  </si>
+  <si>
+    <t>Code4Seller</t>
+  </si>
+  <si>
+    <t>TransacationAmount</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>PaymentDateTime</t>
+  </si>
+  <si>
+    <t>TransacationType</t>
+  </si>
+  <si>
+    <t>TotalCredit</t>
+  </si>
+  <si>
+    <t>TotalDebit</t>
+  </si>
+  <si>
+    <t>BalanceAmount</t>
+  </si>
+  <si>
+    <t>HEADER_USER_LIST</t>
+  </si>
+  <si>
+    <t>USER_EARNINGS</t>
+  </si>
+  <si>
+    <t>USER_EXPENSES</t>
+  </si>
+  <si>
+    <t>USER_ACTIVATION_STATUS</t>
   </si>
 </sst>
 </file>
@@ -535,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,12 +645,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,16 +954,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.90625" customWidth="1"/>
     <col min="5" max="5" width="14.7265625" customWidth="1"/>
@@ -7932,6 +8004,804 @@
         <v>44622.528148148151</v>
       </c>
       <c r="L185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
+        <v>1184</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="5">
+        <v>52</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
+        <v>0</v>
+      </c>
+      <c r="H186" s="5">
+        <v>1</v>
+      </c>
+      <c r="I186" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0</v>
+      </c>
+      <c r="K186" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
+        <v>1185</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="5">
+        <v>52</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <v>0</v>
+      </c>
+      <c r="G187" s="5">
+        <v>0</v>
+      </c>
+      <c r="H187" s="5">
+        <v>1</v>
+      </c>
+      <c r="I187" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0</v>
+      </c>
+      <c r="K187" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" s="5">
+        <v>1186</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="5">
+        <v>52</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0</v>
+      </c>
+      <c r="F188" s="5">
+        <v>0</v>
+      </c>
+      <c r="G188" s="5">
+        <v>0</v>
+      </c>
+      <c r="H188" s="5">
+        <v>1</v>
+      </c>
+      <c r="I188" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+      <c r="K188" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
+        <v>1187</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="5">
+        <v>63</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0</v>
+      </c>
+      <c r="F189" s="5">
+        <v>0</v>
+      </c>
+      <c r="G189" s="5">
+        <v>0</v>
+      </c>
+      <c r="H189" s="5">
+        <v>1</v>
+      </c>
+      <c r="I189" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0</v>
+      </c>
+      <c r="K189" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" s="5">
+        <v>1188</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="5">
+        <v>63</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0</v>
+      </c>
+      <c r="F190" s="5">
+        <v>0</v>
+      </c>
+      <c r="G190" s="5">
+        <v>0</v>
+      </c>
+      <c r="H190" s="5">
+        <v>1</v>
+      </c>
+      <c r="I190" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0</v>
+      </c>
+      <c r="K190" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>1189</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="5">
+        <v>63</v>
+      </c>
+      <c r="E191" s="5">
+        <v>1</v>
+      </c>
+      <c r="F191" s="5">
+        <v>0</v>
+      </c>
+      <c r="G191" s="5">
+        <v>0</v>
+      </c>
+      <c r="H191" s="5">
+        <v>1</v>
+      </c>
+      <c r="I191" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0</v>
+      </c>
+      <c r="K191" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
+        <v>1190</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="5">
+        <v>63</v>
+      </c>
+      <c r="E192" s="5">
+        <v>1</v>
+      </c>
+      <c r="F192" s="5">
+        <v>5</v>
+      </c>
+      <c r="G192" s="5">
+        <v>10</v>
+      </c>
+      <c r="H192" s="5">
+        <v>1</v>
+      </c>
+      <c r="I192" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0</v>
+      </c>
+      <c r="K192" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>1191</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="5">
+        <v>63</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1</v>
+      </c>
+      <c r="F193" s="5">
+        <v>0</v>
+      </c>
+      <c r="G193" s="5">
+        <v>0</v>
+      </c>
+      <c r="H193" s="5">
+        <v>1</v>
+      </c>
+      <c r="I193" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J193" s="5">
+        <v>0</v>
+      </c>
+      <c r="K193" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
+        <v>1192</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="5">
+        <v>63</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0</v>
+      </c>
+      <c r="F194" s="5">
+        <v>0</v>
+      </c>
+      <c r="G194" s="5">
+        <v>0</v>
+      </c>
+      <c r="H194" s="5">
+        <v>1</v>
+      </c>
+      <c r="I194" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J194" s="5">
+        <v>0</v>
+      </c>
+      <c r="K194" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" s="5">
+        <v>1193</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="5">
+        <v>63</v>
+      </c>
+      <c r="E195" s="5">
+        <v>0</v>
+      </c>
+      <c r="F195" s="5">
+        <v>0</v>
+      </c>
+      <c r="G195" s="5">
+        <v>0</v>
+      </c>
+      <c r="H195" s="5">
+        <v>1</v>
+      </c>
+      <c r="I195" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J195" s="5">
+        <v>0</v>
+      </c>
+      <c r="K195" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" s="5">
+        <v>1194</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="5">
+        <v>51</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0</v>
+      </c>
+      <c r="F196" s="5">
+        <v>0</v>
+      </c>
+      <c r="G196" s="5">
+        <v>0</v>
+      </c>
+      <c r="H196" s="5">
+        <v>1</v>
+      </c>
+      <c r="I196" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J196" s="5">
+        <v>0</v>
+      </c>
+      <c r="K196" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
+        <v>1195</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="5">
+        <v>51</v>
+      </c>
+      <c r="E197" s="5">
+        <v>0</v>
+      </c>
+      <c r="F197" s="5">
+        <v>0</v>
+      </c>
+      <c r="G197" s="5">
+        <v>0</v>
+      </c>
+      <c r="H197" s="5">
+        <v>1</v>
+      </c>
+      <c r="I197" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J197" s="5">
+        <v>0</v>
+      </c>
+      <c r="K197" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A198" s="5">
+        <v>1196</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="5">
+        <v>51</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0</v>
+      </c>
+      <c r="F198" s="5">
+        <v>0</v>
+      </c>
+      <c r="G198" s="5">
+        <v>0</v>
+      </c>
+      <c r="H198" s="5">
+        <v>1</v>
+      </c>
+      <c r="I198" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J198" s="5">
+        <v>0</v>
+      </c>
+      <c r="K198" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A199" s="5">
+        <v>1197</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="5">
+        <v>51</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0</v>
+      </c>
+      <c r="F199" s="5">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5">
+        <v>0</v>
+      </c>
+      <c r="H199" s="5">
+        <v>1</v>
+      </c>
+      <c r="I199" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J199" s="5">
+        <v>0</v>
+      </c>
+      <c r="K199" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A200" s="5">
+        <v>1198</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="5">
+        <v>51</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0</v>
+      </c>
+      <c r="F200" s="5">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5">
+        <v>0</v>
+      </c>
+      <c r="H200" s="5">
+        <v>1</v>
+      </c>
+      <c r="I200" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J200" s="5">
+        <v>0</v>
+      </c>
+      <c r="K200" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A201" s="5">
+        <v>1199</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="5">
+        <v>51</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0</v>
+      </c>
+      <c r="F201" s="5">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5">
+        <v>0</v>
+      </c>
+      <c r="H201" s="5">
+        <v>1</v>
+      </c>
+      <c r="I201" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J201" s="5">
+        <v>0</v>
+      </c>
+      <c r="K201" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A202" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="5">
+        <v>51</v>
+      </c>
+      <c r="E202" s="5">
+        <v>0</v>
+      </c>
+      <c r="F202" s="5">
+        <v>0</v>
+      </c>
+      <c r="G202" s="5">
+        <v>0</v>
+      </c>
+      <c r="H202" s="5">
+        <v>1</v>
+      </c>
+      <c r="I202" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J202" s="5">
+        <v>0</v>
+      </c>
+      <c r="K202" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A203" s="5">
+        <v>1201</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="5">
+        <v>50</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0</v>
+      </c>
+      <c r="F203" s="5">
+        <v>0</v>
+      </c>
+      <c r="G203" s="5">
+        <v>0</v>
+      </c>
+      <c r="H203" s="5">
+        <v>1</v>
+      </c>
+      <c r="I203" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J203" s="5">
+        <v>0</v>
+      </c>
+      <c r="K203" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" s="5">
+        <v>1202</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="5">
+        <v>50</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0</v>
+      </c>
+      <c r="F204" s="5">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5">
+        <v>0</v>
+      </c>
+      <c r="H204" s="5">
+        <v>1</v>
+      </c>
+      <c r="I204" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J204" s="5">
+        <v>0</v>
+      </c>
+      <c r="K204" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A205" s="5">
+        <v>1203</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="5">
+        <v>50</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0</v>
+      </c>
+      <c r="F205" s="5">
+        <v>0</v>
+      </c>
+      <c r="G205" s="5">
+        <v>0</v>
+      </c>
+      <c r="H205" s="5">
+        <v>1</v>
+      </c>
+      <c r="I205" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0</v>
+      </c>
+      <c r="K205" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A206" s="5">
+        <v>1204</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="5">
+        <v>50</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0</v>
+      </c>
+      <c r="F206" s="5">
+        <v>0</v>
+      </c>
+      <c r="G206" s="5">
+        <v>0</v>
+      </c>
+      <c r="H206" s="5">
+        <v>1</v>
+      </c>
+      <c r="I206" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J206" s="5">
+        <v>0</v>
+      </c>
+      <c r="K206" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L206" s="5">
         <v>0</v>
       </c>
     </row>

--- a/DBScript/Resource Keys.xlsx
+++ b/DBScript/Resource Keys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="198">
   <si>
     <t>resource_key_id</t>
   </si>
@@ -583,6 +583,33 @@
   </si>
   <si>
     <t>USER_ACTIVATION_STATUS</t>
+  </si>
+  <si>
+    <t>DASHBOARD_HEADER_KEY</t>
+  </si>
+  <si>
+    <t>BUYER_COUNT</t>
+  </si>
+  <si>
+    <t>SELLER_COUNT</t>
+  </si>
+  <si>
+    <t>AVAILABLE_BALANCE</t>
+  </si>
+  <si>
+    <t>RECORDS_UPLODED_COUNT</t>
+  </si>
+  <si>
+    <t>RECORDS_BOUGHT_COUNT</t>
+  </si>
+  <si>
+    <t>RECORDS_SOLD_COUNT</t>
+  </si>
+  <si>
+    <t>TOTAL_CREDIT</t>
+  </si>
+  <si>
+    <t>TOTAL_DEBIT</t>
   </si>
 </sst>
 </file>
@@ -954,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8802,6 +8829,348 @@
         <v>44622.528148148151</v>
       </c>
       <c r="L206" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A207" s="5">
+        <v>1205</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="5">
+        <v>65</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0</v>
+      </c>
+      <c r="F207" s="5">
+        <v>0</v>
+      </c>
+      <c r="G207" s="5">
+        <v>0</v>
+      </c>
+      <c r="H207" s="5">
+        <v>1</v>
+      </c>
+      <c r="I207" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J207" s="5">
+        <v>0</v>
+      </c>
+      <c r="K207" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A208" s="5">
+        <v>1206</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="5">
+        <v>65</v>
+      </c>
+      <c r="E208" s="5">
+        <v>0</v>
+      </c>
+      <c r="F208" s="5">
+        <v>0</v>
+      </c>
+      <c r="G208" s="5">
+        <v>0</v>
+      </c>
+      <c r="H208" s="5">
+        <v>1</v>
+      </c>
+      <c r="I208" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J208" s="5">
+        <v>0</v>
+      </c>
+      <c r="K208" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" s="5">
+        <v>1207</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="5">
+        <v>65</v>
+      </c>
+      <c r="E209" s="5">
+        <v>0</v>
+      </c>
+      <c r="F209" s="5">
+        <v>0</v>
+      </c>
+      <c r="G209" s="5">
+        <v>0</v>
+      </c>
+      <c r="H209" s="5">
+        <v>1</v>
+      </c>
+      <c r="I209" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0</v>
+      </c>
+      <c r="K209" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A210" s="5">
+        <v>1208</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="5">
+        <v>65</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0</v>
+      </c>
+      <c r="F210" s="5">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5">
+        <v>0</v>
+      </c>
+      <c r="H210" s="5">
+        <v>1</v>
+      </c>
+      <c r="I210" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0</v>
+      </c>
+      <c r="K210" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A211" s="5">
+        <v>1209</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="5">
+        <v>65</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0</v>
+      </c>
+      <c r="F211" s="5">
+        <v>0</v>
+      </c>
+      <c r="G211" s="5">
+        <v>0</v>
+      </c>
+      <c r="H211" s="5">
+        <v>1</v>
+      </c>
+      <c r="I211" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J211" s="5">
+        <v>0</v>
+      </c>
+      <c r="K211" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
+        <v>1210</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="5">
+        <v>65</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0</v>
+      </c>
+      <c r="F212" s="5">
+        <v>0</v>
+      </c>
+      <c r="G212" s="5">
+        <v>0</v>
+      </c>
+      <c r="H212" s="5">
+        <v>1</v>
+      </c>
+      <c r="I212" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J212" s="5">
+        <v>0</v>
+      </c>
+      <c r="K212" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A213" s="5">
+        <v>1211</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="5">
+        <v>65</v>
+      </c>
+      <c r="E213" s="5">
+        <v>0</v>
+      </c>
+      <c r="F213" s="5">
+        <v>0</v>
+      </c>
+      <c r="G213" s="5">
+        <v>0</v>
+      </c>
+      <c r="H213" s="5">
+        <v>1</v>
+      </c>
+      <c r="I213" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J213" s="5">
+        <v>0</v>
+      </c>
+      <c r="K213" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A214" s="5">
+        <v>1212</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="5">
+        <v>65</v>
+      </c>
+      <c r="E214" s="5">
+        <v>0</v>
+      </c>
+      <c r="F214" s="5">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5">
+        <v>0</v>
+      </c>
+      <c r="H214" s="5">
+        <v>1</v>
+      </c>
+      <c r="I214" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J214" s="5">
+        <v>0</v>
+      </c>
+      <c r="K214" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A215" s="5">
+        <v>1213</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="5">
+        <v>65</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0</v>
+      </c>
+      <c r="F215" s="5">
+        <v>0</v>
+      </c>
+      <c r="G215" s="5">
+        <v>0</v>
+      </c>
+      <c r="H215" s="5">
+        <v>1</v>
+      </c>
+      <c r="I215" s="6">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="J215" s="5">
+        <v>0</v>
+      </c>
+      <c r="K215" s="6">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="L215" s="5">
         <v>0</v>
       </c>
     </row>

--- a/DBScript/Resource Keys.xlsx
+++ b/DBScript/Resource Keys.xlsx
@@ -597,9 +597,6 @@
     <t>AVAILABLE_BALANCE</t>
   </si>
   <si>
-    <t>RECORDS_UPLODED_COUNT</t>
-  </si>
-  <si>
     <t>RECORDS_BOUGHT_COUNT</t>
   </si>
   <si>
@@ -610,6 +607,9 @@
   </si>
   <si>
     <t>TOTAL_DEBIT</t>
+  </si>
+  <si>
+    <t>RECORDS_UPLOADED_COUNT</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
   <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I219" sqref="I219"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8951,7 +8951,7 @@
         <v>1208</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>13</v>
@@ -8989,7 +8989,7 @@
         <v>1209</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>13</v>
@@ -9065,7 +9065,7 @@
         <v>1211</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>13</v>
@@ -9103,7 +9103,7 @@
         <v>1212</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>13</v>
@@ -9141,7 +9141,7 @@
         <v>1213</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>13</v>
